--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.11209122300315</v>
+        <v>1.805874666666667</v>
       </c>
       <c r="H2">
-        <v>1.11209122300315</v>
+        <v>5.417624</v>
       </c>
       <c r="I2">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="J2">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N2">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q2">
-        <v>7.519609038152507</v>
+        <v>13.09039839952978</v>
       </c>
       <c r="R2">
-        <v>7.519609038152507</v>
+        <v>117.813585595768</v>
       </c>
       <c r="S2">
-        <v>0.001139330010306821</v>
+        <v>0.00190597623294287</v>
       </c>
       <c r="T2">
-        <v>0.001139330010306821</v>
+        <v>0.00190597623294287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.11209122300315</v>
+        <v>1.805874666666667</v>
       </c>
       <c r="H3">
-        <v>1.11209122300315</v>
+        <v>5.417624</v>
       </c>
       <c r="I3">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="J3">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q3">
-        <v>41.92573073861565</v>
+        <v>68.31053327996979</v>
       </c>
       <c r="R3">
-        <v>41.92573073861565</v>
+        <v>614.794799519728</v>
       </c>
       <c r="S3">
-        <v>0.006352357282431788</v>
+        <v>0.009946087881935834</v>
       </c>
       <c r="T3">
-        <v>0.006352357282431788</v>
+        <v>0.009946087881935834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.11209122300315</v>
+        <v>1.805874666666667</v>
       </c>
       <c r="H4">
-        <v>1.11209122300315</v>
+        <v>5.417624</v>
       </c>
       <c r="I4">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="J4">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N4">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q4">
-        <v>40.6827934868846</v>
+        <v>69.00116416203289</v>
       </c>
       <c r="R4">
-        <v>40.6827934868846</v>
+        <v>621.010477458296</v>
       </c>
       <c r="S4">
-        <v>0.006164034232039079</v>
+        <v>0.01004664448890633</v>
       </c>
       <c r="T4">
-        <v>0.006164034232039079</v>
+        <v>0.01004664448890633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.11209122300315</v>
+        <v>1.805874666666667</v>
       </c>
       <c r="H5">
-        <v>1.11209122300315</v>
+        <v>5.417624</v>
       </c>
       <c r="I5">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="J5">
-        <v>0.01509025391568851</v>
+        <v>0.02415265239695089</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N5">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q5">
-        <v>9.467952774552646</v>
+        <v>15.48026765115111</v>
       </c>
       <c r="R5">
-        <v>9.467952774552646</v>
+        <v>139.32240886036</v>
       </c>
       <c r="S5">
-        <v>0.001434532390910825</v>
+        <v>0.002253943793165853</v>
       </c>
       <c r="T5">
-        <v>0.001434532390910825</v>
+        <v>0.002253943793165853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.1060469691695</v>
+        <v>53.204531</v>
       </c>
       <c r="H6">
-        <v>53.1060469691695</v>
+        <v>159.613593</v>
       </c>
       <c r="I6">
-        <v>0.7206097095696421</v>
+        <v>0.711583459752355</v>
       </c>
       <c r="J6">
-        <v>0.7206097095696421</v>
+        <v>0.7115834597523549</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N6">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q6">
-        <v>359.0862894246467</v>
+        <v>385.6682417145224</v>
       </c>
       <c r="R6">
-        <v>359.0862894246467</v>
+        <v>3471.014175430701</v>
       </c>
       <c r="S6">
-        <v>0.05440678946943458</v>
+        <v>0.05615371511803265</v>
       </c>
       <c r="T6">
-        <v>0.05440678946943458</v>
+        <v>0.05615371511803263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.1060469691695</v>
+        <v>53.204531</v>
       </c>
       <c r="H7">
-        <v>53.1060469691695</v>
+        <v>159.613593</v>
       </c>
       <c r="I7">
-        <v>0.7206097095696421</v>
+        <v>0.711583459752355</v>
       </c>
       <c r="J7">
-        <v>0.7206097095696421</v>
+        <v>0.7115834597523549</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q7">
-        <v>2002.092795777212</v>
+        <v>2012.559316881727</v>
       </c>
       <c r="R7">
-        <v>2002.092795777212</v>
+        <v>18113.03385193555</v>
       </c>
       <c r="S7">
-        <v>0.3033461439384212</v>
+        <v>0.2930308236838766</v>
       </c>
       <c r="T7">
-        <v>0.3033461439384212</v>
+        <v>0.2930308236838766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.1060469691695</v>
+        <v>53.204531</v>
       </c>
       <c r="H8">
-        <v>53.1060469691695</v>
+        <v>159.613593</v>
       </c>
       <c r="I8">
-        <v>0.7206097095696421</v>
+        <v>0.711583459752355</v>
       </c>
       <c r="J8">
-        <v>0.7206097095696421</v>
+        <v>0.7115834597523549</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N8">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q8">
-        <v>1942.73841665361</v>
+        <v>2032.9066271644</v>
       </c>
       <c r="R8">
-        <v>1942.73841665361</v>
+        <v>18296.15964447959</v>
       </c>
       <c r="S8">
-        <v>0.2943530932311915</v>
+        <v>0.2959934141734434</v>
       </c>
       <c r="T8">
-        <v>0.2943530932311915</v>
+        <v>0.2959934141734434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.1060469691695</v>
+        <v>53.204531</v>
       </c>
       <c r="H9">
-        <v>53.1060469691695</v>
+        <v>159.613593</v>
       </c>
       <c r="I9">
-        <v>0.7206097095696421</v>
+        <v>0.711583459752355</v>
       </c>
       <c r="J9">
-        <v>0.7206097095696421</v>
+        <v>0.7115834597523549</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N9">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q9">
-        <v>452.1261694606929</v>
+        <v>456.0783731764882</v>
       </c>
       <c r="R9">
-        <v>452.1261694606929</v>
+        <v>4104.705358588394</v>
       </c>
       <c r="S9">
-        <v>0.06850368293059488</v>
+        <v>0.06640550677700237</v>
       </c>
       <c r="T9">
-        <v>0.06850368293059488</v>
+        <v>0.06640550677700235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.895815014779088</v>
+        <v>1.081716333333333</v>
       </c>
       <c r="H10">
-        <v>0.895815014779088</v>
+        <v>3.245149</v>
       </c>
       <c r="I10">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="J10">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N10">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q10">
-        <v>6.05721773745756</v>
+        <v>7.841129852465889</v>
       </c>
       <c r="R10">
-        <v>6.05721773745756</v>
+        <v>70.57016867219301</v>
       </c>
       <c r="S10">
-        <v>0.0009177564833801159</v>
+        <v>0.001141677027855444</v>
       </c>
       <c r="T10">
-        <v>0.0009177564833801159</v>
+        <v>0.001141677027855444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.895815014779088</v>
+        <v>1.081716333333333</v>
       </c>
       <c r="H11">
-        <v>0.895815014779088</v>
+        <v>3.245149</v>
       </c>
       <c r="I11">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="J11">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q11">
-        <v>33.77213876377357</v>
+        <v>40.91791138753089</v>
       </c>
       <c r="R11">
-        <v>33.77213876377357</v>
+        <v>368.261202487778</v>
       </c>
       <c r="S11">
-        <v>0.005116969647037274</v>
+        <v>0.005957692365504912</v>
       </c>
       <c r="T11">
-        <v>0.005116969647037274</v>
+        <v>0.005957692365504913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.895815014779088</v>
+        <v>1.081716333333333</v>
       </c>
       <c r="H12">
-        <v>0.895815014779088</v>
+        <v>3.245149</v>
       </c>
       <c r="I12">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="J12">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N12">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q12">
-        <v>32.77092426850749</v>
+        <v>41.33159829461344</v>
       </c>
       <c r="R12">
-        <v>32.77092426850749</v>
+        <v>371.984384651521</v>
       </c>
       <c r="S12">
-        <v>0.004965271105873345</v>
+        <v>0.006017925628749775</v>
       </c>
       <c r="T12">
-        <v>0.004965271105873345</v>
+        <v>0.006017925628749776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.895815014779088</v>
+        <v>1.081716333333333</v>
       </c>
       <c r="H13">
-        <v>0.895815014779088</v>
+        <v>3.245149</v>
       </c>
       <c r="I13">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="J13">
-        <v>0.01215554601536892</v>
+        <v>0.01446740411909589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N13">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q13">
-        <v>7.626653352914341</v>
+        <v>9.272658103970555</v>
       </c>
       <c r="R13">
-        <v>7.626653352914341</v>
+        <v>83.45392293573499</v>
       </c>
       <c r="S13">
-        <v>0.001155548779078189</v>
+        <v>0.001350109096985759</v>
       </c>
       <c r="T13">
-        <v>0.001155548779078189</v>
+        <v>0.001350109096985759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.5820382068819</v>
+        <v>18.677085</v>
       </c>
       <c r="H14">
-        <v>18.5820382068819</v>
+        <v>56.031255</v>
       </c>
       <c r="I14">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315983</v>
       </c>
       <c r="J14">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315982</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N14">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q14">
-        <v>125.645863898135</v>
+        <v>135.386186043115</v>
       </c>
       <c r="R14">
-        <v>125.645863898135</v>
+        <v>1218.475674388035</v>
       </c>
       <c r="S14">
-        <v>0.01903717369929151</v>
+        <v>0.01971237581861742</v>
       </c>
       <c r="T14">
-        <v>0.01903717369929151</v>
+        <v>0.01971237581861742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.5820382068819</v>
+        <v>18.677085</v>
       </c>
       <c r="H15">
-        <v>18.5820382068819</v>
+        <v>56.031255</v>
       </c>
       <c r="I15">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315983</v>
       </c>
       <c r="J15">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315982</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q15">
-        <v>700.5410296581327</v>
+        <v>706.4951184127901</v>
       </c>
       <c r="R15">
-        <v>700.5410296581327</v>
+        <v>6358.456065715111</v>
       </c>
       <c r="S15">
-        <v>0.1061421430942969</v>
+        <v>0.1028664570234399</v>
       </c>
       <c r="T15">
-        <v>0.1061421430942969</v>
+        <v>0.1028664570234399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.5820382068819</v>
+        <v>18.677085</v>
       </c>
       <c r="H16">
-        <v>18.5820382068819</v>
+        <v>56.031255</v>
       </c>
       <c r="I16">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315983</v>
       </c>
       <c r="J16">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315982</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N16">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q16">
-        <v>679.7726726900303</v>
+        <v>713.6379018661551</v>
       </c>
       <c r="R16">
-        <v>679.7726726900303</v>
+        <v>6422.741116795395</v>
       </c>
       <c r="S16">
-        <v>0.102995435301582</v>
+        <v>0.1039064540566593</v>
       </c>
       <c r="T16">
-        <v>0.102995435301582</v>
+        <v>0.1039064540566593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.5820382068819</v>
+        <v>18.677085</v>
       </c>
       <c r="H17">
-        <v>18.5820382068819</v>
+        <v>56.031255</v>
       </c>
       <c r="I17">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315983</v>
       </c>
       <c r="J17">
-        <v>0.2521444904993004</v>
+        <v>0.2497964837315982</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N17">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q17">
-        <v>158.2009250307629</v>
+        <v>160.103178852925</v>
       </c>
       <c r="R17">
-        <v>158.2009250307629</v>
+        <v>1440.928609676325</v>
       </c>
       <c r="S17">
-        <v>0.02396973840413007</v>
+        <v>0.02331119683288157</v>
       </c>
       <c r="T17">
-        <v>0.02396973840413007</v>
+        <v>0.02331119683288157</v>
       </c>
     </row>
   </sheetData>
